--- a/pred_ohlcv/54_21/2020-01-16 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-630674.847909471</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-630629.847909471</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-640642.580709471</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-640597.580709471</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-661450.565409471</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-774031.235509471</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-775677.2929094711</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2095668.854309471</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2984478.458192096</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3423774.093267704</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3484456.437367704</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3548050.643367704</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3559077.792967704</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3560690.696167704</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-615074.5081094711</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-615029.5081094711</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-630674.847909471</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-630629.847909471</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-640642.580709471</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-640597.580709471</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-661450.565409471</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-774031.235509471</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-775677.2929094711</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-775605.311309471</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-823332.982909471</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2973025.775192095</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2984478.458192096</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2974445.167992095</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2965822.095092095</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2922900.089856925</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2969081.027256926</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2950081.027256926</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2949952.227156925</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2949952.227156925</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2949647.598556926</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3171187.332967704</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3171141.332967704</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3177016.863667704</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3211000.885667704</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3212396.234467704</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3246282.598567704</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3279713.332567704</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3253820.550967704</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3250828.068145775</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3414277.567145775</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3414227.567145775</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3423774.093267704</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3484456.437367704</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3548050.643367704</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3559123.792967704</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3559077.792967704</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3560690.696167704</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3555008.491167704</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3555008.491167704</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3547019.894624641</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3547019.894624641</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3613707.735607157</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3626784.004707158</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3626738.004707158</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3654353.319537851</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3638854.45951438</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3636478.82331438</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3636478.82331438</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3746064.47551438</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3746019.47551438</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3745051.36711438</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3745007.36711438</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3706052.315502164</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3902086.305639006</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3899488.100139006</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3900398.100139006</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4286102.424439006</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4284831.397554358</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4286716.339754358</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4306156.988754358</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4306111.988754358</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4305509.951980995</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4384767.638280995</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4384717.638280995</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4389717.638280995</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4404760.971180995</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4404760.971180995</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4404715.971180995</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4677206.157580995</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4677161.157580995</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4677161.157580995</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4734715.839880995</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4734670.839880995</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4756723.839880995</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4756678.839880995</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4707150.062055842</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4710447.598755842</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4765223.183755842</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4765223.183755842</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4828093.614872144</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4828048.614872144</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4727425.635472144</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
